--- a/data/Excel Format/entities/Job.xlsx
+++ b/data/Excel Format/entities/Job.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="136">
   <si>
     <t>company_ID</t>
-  </si>
-  <si>
-    <t>facility_ID</t>
   </si>
   <si>
     <t>job_ID</t>
@@ -438,7 +435,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -465,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -473,9 +469,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,11 +688,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="2" width="14.86"/>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
-    <col customWidth="1" min="4" max="4" width="20.86"/>
-    <col customWidth="1" min="5" max="5" width="26.57"/>
-    <col customWidth="1" min="6" max="6" width="25.71"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="20.86"/>
+    <col customWidth="1" min="4" max="4" width="26.57"/>
+    <col customWidth="1" min="5" max="5" width="25.71"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -715,9 +706,6 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3">
       <c r="B3" s="1">
@@ -726,13 +714,10 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="b">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -743,13 +728,10 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="b">
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -760,13 +742,10 @@
       <c r="C5" s="1">
         <v>3.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="b">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -777,13 +756,10 @@
       <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="b">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -792,15 +768,12 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="1">
         <v>5.0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="b">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -811,13 +784,10 @@
       <c r="C8" s="1">
         <v>1.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="b">
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -828,13 +798,10 @@
       <c r="C9" s="1">
         <v>2.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="b">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -845,13 +812,10 @@
       <c r="C10" s="1">
         <v>1.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="b">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -862,13 +826,10 @@
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="b">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -879,13 +840,10 @@
       <c r="C12" s="1">
         <v>3.0</v>
       </c>
-      <c r="D12" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="b">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -896,13 +854,10 @@
       <c r="C13" s="1">
         <v>1.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="b">
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -913,13 +868,10 @@
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
-      <c r="D14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="b">
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -928,15 +880,12 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="1">
         <v>3.0</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="b">
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -945,15 +894,12 @@
         <v>4.0</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="1">
         <v>4.0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="b">
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -962,15 +908,12 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="1">
         <v>5.0</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1" t="b">
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -981,13 +924,10 @@
       <c r="C18" s="1">
         <v>1.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="b">
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -998,13 +938,10 @@
       <c r="C19" s="1">
         <v>1.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="b">
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1013,15 +950,12 @@
         <v>6.0</v>
       </c>
       <c r="C20" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="1">
         <v>2.0</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="b">
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1032,13 +966,10 @@
       <c r="C21" s="1">
         <v>1.0</v>
       </c>
-      <c r="D21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="b">
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1049,13 +980,10 @@
       <c r="C22" s="1">
         <v>2.0</v>
       </c>
-      <c r="D22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1" t="b">
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1064,15 +992,12 @@
         <v>7.0</v>
       </c>
       <c r="C23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="1">
         <v>3.0</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="b">
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1083,13 +1008,10 @@
       <c r="C24" s="1">
         <v>1.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="b">
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1098,15 +1020,12 @@
         <v>9.0</v>
       </c>
       <c r="C25" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="b">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1115,15 +1034,12 @@
         <v>9.0</v>
       </c>
       <c r="C26" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D26" s="1">
         <v>2.0</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="b">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1132,15 +1048,12 @@
         <v>10.0</v>
       </c>
       <c r="C27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="b">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1149,15 +1062,12 @@
         <v>10.0</v>
       </c>
       <c r="C28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="1">
         <v>2.0</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="b">
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1166,15 +1076,12 @@
         <v>10.0</v>
       </c>
       <c r="C29" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="1">
         <v>3.0</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1" t="b">
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1182,16 +1089,13 @@
       <c r="B30" s="3">
         <v>11.0</v>
       </c>
-      <c r="C30" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="b">
+      <c r="C30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1199,16 +1103,13 @@
       <c r="B31" s="3">
         <v>12.0</v>
       </c>
-      <c r="C31" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="b">
+      <c r="C31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1216,16 +1117,13 @@
       <c r="B32" s="3">
         <v>13.0</v>
       </c>
-      <c r="C32" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="1" t="b">
+      <c r="C32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1233,16 +1131,13 @@
       <c r="B33" s="3">
         <v>14.0</v>
       </c>
-      <c r="C33" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="b">
+      <c r="C33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1250,16 +1145,13 @@
       <c r="B34" s="3">
         <v>15.0</v>
       </c>
-      <c r="C34" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="1" t="b">
+      <c r="C34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1267,16 +1159,13 @@
       <c r="B35" s="3">
         <v>16.0</v>
       </c>
-      <c r="C35" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="1" t="b">
+      <c r="C35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1284,16 +1173,13 @@
       <c r="B36" s="3">
         <v>17.0</v>
       </c>
-      <c r="C36" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1" t="b">
+      <c r="C36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1301,16 +1187,13 @@
       <c r="B37" s="3">
         <v>18.0</v>
       </c>
-      <c r="C37" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="1" t="b">
+      <c r="C37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1318,16 +1201,13 @@
       <c r="B38" s="3">
         <v>18.0</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>2.0</v>
       </c>
-      <c r="D38" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="1" t="b">
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1335,16 +1215,13 @@
       <c r="B39" s="3">
         <v>18.0</v>
       </c>
-      <c r="C39" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="C39" s="1">
         <v>3.0</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="1" t="b">
+      <c r="D39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1352,16 +1229,13 @@
       <c r="B40" s="3">
         <v>18.0</v>
       </c>
-      <c r="C40" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="C40" s="1">
         <v>4.0</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="1" t="b">
+      <c r="D40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1369,16 +1243,13 @@
       <c r="B41" s="3">
         <v>19.0</v>
       </c>
-      <c r="C41" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="1" t="b">
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1386,16 +1257,13 @@
       <c r="B42" s="3">
         <v>20.0</v>
       </c>
-      <c r="C42" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="1" t="b">
+      <c r="C42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1403,16 +1271,13 @@
       <c r="B43" s="3">
         <v>20.0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>2.0</v>
       </c>
-      <c r="D43" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="1" t="b">
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1420,16 +1285,13 @@
       <c r="B44" s="3">
         <v>20.0</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>3.0</v>
       </c>
-      <c r="D44" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="1" t="b">
+      <c r="D44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1437,16 +1299,13 @@
       <c r="B45" s="3">
         <v>21.0</v>
       </c>
-      <c r="C45" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="1" t="b">
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1454,16 +1313,13 @@
       <c r="B46" s="3">
         <v>22.0</v>
       </c>
-      <c r="C46" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="1" t="b">
+      <c r="C46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1471,16 +1327,13 @@
       <c r="B47" s="3">
         <v>23.0</v>
       </c>
-      <c r="C47" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="1" t="b">
+      <c r="C47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1488,16 +1341,13 @@
       <c r="B48" s="3">
         <v>24.0</v>
       </c>
-      <c r="C48" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="1" t="b">
+      <c r="C48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1505,16 +1355,13 @@
       <c r="B49" s="3">
         <v>25.0</v>
       </c>
-      <c r="C49" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="1" t="b">
+      <c r="C49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1522,16 +1369,13 @@
       <c r="B50" s="3">
         <v>26.0</v>
       </c>
-      <c r="C50" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="1" t="b">
+      <c r="C50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1539,50 +1383,41 @@
       <c r="B51" s="3">
         <v>27.0</v>
       </c>
-      <c r="C51" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="C51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="4">
+      <c r="E52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="1">
         <v>27.0</v>
       </c>
-      <c r="C52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C53" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="1" t="b">
+      <c r="E53" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1590,16 +1425,13 @@
       <c r="B54" s="3">
         <v>28.0</v>
       </c>
-      <c r="C54" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="1" t="b">
+      <c r="C54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1607,16 +1439,13 @@
       <c r="B55" s="3">
         <v>29.0</v>
       </c>
-      <c r="C55" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="1" t="b">
+      <c r="C55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1624,16 +1453,13 @@
       <c r="B56" s="3">
         <v>30.0</v>
       </c>
-      <c r="C56" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="1" t="b">
+      <c r="C56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1641,16 +1467,13 @@
       <c r="B57" s="3">
         <v>31.0</v>
       </c>
-      <c r="C57" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="1" t="b">
+      <c r="C57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1658,16 +1481,13 @@
       <c r="B58" s="3">
         <v>31.0</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>2.0</v>
       </c>
-      <c r="D58" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="1" t="b">
+      <c r="D58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1675,16 +1495,13 @@
       <c r="B59" s="3">
         <v>32.0</v>
       </c>
-      <c r="C59" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="1" t="b">
+      <c r="C59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1692,16 +1509,13 @@
       <c r="B60" s="3">
         <v>33.0</v>
       </c>
-      <c r="C60" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="1" t="b">
+      <c r="C60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1709,16 +1523,13 @@
       <c r="B61" s="3">
         <v>34.0</v>
       </c>
-      <c r="C61" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="1" t="b">
+      <c r="C61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1726,16 +1537,13 @@
       <c r="B62" s="3">
         <v>35.0</v>
       </c>
-      <c r="C62" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="1" t="b">
+      <c r="C62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1743,16 +1551,13 @@
       <c r="B63" s="3">
         <v>36.0</v>
       </c>
-      <c r="C63" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="1" t="b">
+      <c r="C63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1760,16 +1565,13 @@
       <c r="B64" s="3">
         <v>37.0</v>
       </c>
-      <c r="C64" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="1" t="b">
+      <c r="C64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1777,16 +1579,13 @@
       <c r="B65" s="3">
         <v>38.0</v>
       </c>
-      <c r="C65" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="1" t="b">
+      <c r="C65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1794,16 +1593,13 @@
       <c r="B66" s="3">
         <v>39.0</v>
       </c>
-      <c r="C66" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" s="1" t="b">
+      <c r="C66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1811,16 +1607,13 @@
       <c r="B67" s="3">
         <v>39.0</v>
       </c>
-      <c r="C67" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="C67" s="1">
         <v>2.0</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="1" t="b">
+      <c r="D67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1828,16 +1621,13 @@
       <c r="B68" s="3">
         <v>40.0</v>
       </c>
-      <c r="C68" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" s="1" t="b">
+      <c r="C68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1845,16 +1635,13 @@
       <c r="B69" s="3">
         <v>41.0</v>
       </c>
-      <c r="C69" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69" s="1" t="b">
+      <c r="C69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1862,16 +1649,13 @@
       <c r="B70" s="3">
         <v>42.0</v>
       </c>
-      <c r="C70" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="1" t="b">
+      <c r="C70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1879,16 +1663,13 @@
       <c r="B71" s="3">
         <v>43.0</v>
       </c>
-      <c r="C71" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="1" t="b">
+      <c r="C71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1896,16 +1677,13 @@
       <c r="B72" s="3">
         <v>44.0</v>
       </c>
-      <c r="C72" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="1" t="b">
+      <c r="C72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1913,16 +1691,13 @@
       <c r="B73" s="3">
         <v>45.0</v>
       </c>
-      <c r="C73" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="1" t="b">
+      <c r="C73" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1930,16 +1705,13 @@
       <c r="B74" s="3">
         <v>45.0</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>2.0</v>
       </c>
-      <c r="D74" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="1" t="b">
+      <c r="D74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1947,16 +1719,13 @@
       <c r="B75" s="3">
         <v>46.0</v>
       </c>
-      <c r="C75" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="1" t="b">
+      <c r="C75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1964,16 +1733,13 @@
       <c r="B76" s="3">
         <v>47.0</v>
       </c>
-      <c r="C76" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" s="1" t="b">
+      <c r="C76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1981,16 +1747,13 @@
       <c r="B77" s="3">
         <v>47.0</v>
       </c>
-      <c r="C77" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D77" s="4">
+      <c r="C77" s="1">
         <v>2.0</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="1" t="b">
+      <c r="D77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1998,16 +1761,13 @@
       <c r="B78" s="3">
         <v>47.0</v>
       </c>
-      <c r="C78" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D78" s="4">
+      <c r="C78" s="1">
         <v>3.0</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F78" s="4" t="b">
+      <c r="D78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2015,16 +1775,13 @@
       <c r="B79" s="3">
         <v>48.0</v>
       </c>
-      <c r="C79" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="1" t="b">
+      <c r="C79" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2032,16 +1789,13 @@
       <c r="B80" s="3">
         <v>49.0</v>
       </c>
-      <c r="C80" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="1" t="b">
+      <c r="C80" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2049,16 +1803,13 @@
       <c r="B81" s="3">
         <v>50.0</v>
       </c>
-      <c r="C81" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" s="1" t="b">
+      <c r="C81" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2066,16 +1817,13 @@
       <c r="B82" s="3">
         <v>50.0</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="1">
         <v>2.0</v>
       </c>
-      <c r="D82" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="1" t="b">
+      <c r="D82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2083,16 +1831,13 @@
       <c r="B83" s="3">
         <v>50.0</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="1">
         <v>3.0</v>
       </c>
-      <c r="D83" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" s="1" t="b">
+      <c r="D83" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2100,16 +1845,13 @@
       <c r="B84" s="3">
         <v>51.0</v>
       </c>
-      <c r="C84" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F84" s="1" t="b">
+      <c r="C84" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2117,16 +1859,13 @@
       <c r="B85" s="3">
         <v>52.0</v>
       </c>
-      <c r="C85" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F85" s="1" t="b">
+      <c r="C85" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2134,16 +1873,13 @@
       <c r="B86" s="3">
         <v>52.0</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="1">
         <v>2.0</v>
       </c>
-      <c r="D86" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="1" t="b">
+      <c r="D86" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2151,16 +1887,13 @@
       <c r="B87" s="3">
         <v>53.0</v>
       </c>
-      <c r="C87" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F87" s="1" t="b">
+      <c r="C87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2168,16 +1901,13 @@
       <c r="B88" s="3">
         <v>54.0</v>
       </c>
-      <c r="C88" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D88" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="1" t="b">
+      <c r="C88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2185,16 +1915,13 @@
       <c r="B89" s="3">
         <v>55.0</v>
       </c>
-      <c r="C89" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F89" s="1" t="b">
+      <c r="C89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2202,16 +1929,13 @@
       <c r="B90" s="3">
         <v>56.0</v>
       </c>
-      <c r="C90" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="1" t="b">
+      <c r="C90" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2219,16 +1943,13 @@
       <c r="B91" s="3">
         <v>57.0</v>
       </c>
-      <c r="C91" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F91" s="1" t="b">
+      <c r="C91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2236,16 +1957,13 @@
       <c r="B92" s="3">
         <v>57.0</v>
       </c>
-      <c r="C92" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C92" s="1">
         <v>2.0</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F92" s="1" t="b">
+      <c r="D92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2253,16 +1971,13 @@
       <c r="B93" s="3">
         <v>57.0</v>
       </c>
-      <c r="C93" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C93" s="1">
         <v>3.0</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" s="1" t="b">
+      <c r="D93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2270,16 +1985,13 @@
       <c r="B94" s="3">
         <v>57.0</v>
       </c>
-      <c r="C94" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C94" s="1">
         <v>4.0</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F94" s="1" t="b">
+      <c r="D94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2287,16 +1999,13 @@
       <c r="B95" s="3">
         <v>58.0</v>
       </c>
-      <c r="C95" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D95" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F95" s="1" t="b">
+      <c r="C95" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2304,16 +2013,13 @@
       <c r="B96" s="3">
         <v>59.0</v>
       </c>
-      <c r="C96" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F96" s="1" t="b">
+      <c r="C96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2321,16 +2027,13 @@
       <c r="B97" s="3">
         <v>60.0</v>
       </c>
-      <c r="C97" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F97" s="1" t="b">
+      <c r="C97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2338,16 +2041,13 @@
       <c r="B98" s="3">
         <v>61.0</v>
       </c>
-      <c r="C98" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F98" s="1" t="b">
+      <c r="C98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2355,16 +2055,13 @@
       <c r="B99" s="3">
         <v>61.0</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="1">
         <v>2.0</v>
       </c>
-      <c r="D99" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F99" s="1" t="b">
+      <c r="D99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2372,16 +2069,13 @@
       <c r="B100" s="3">
         <v>62.0</v>
       </c>
-      <c r="C100" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F100" s="1" t="b">
+      <c r="C100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2389,16 +2083,13 @@
       <c r="B101" s="3">
         <v>63.0</v>
       </c>
-      <c r="C101" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D101" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F101" s="1" t="b">
+      <c r="C101" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2406,16 +2097,13 @@
       <c r="B102" s="3">
         <v>64.0</v>
       </c>
-      <c r="C102" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D102" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F102" s="1" t="b">
+      <c r="C102" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2423,16 +2111,13 @@
       <c r="B103" s="3">
         <v>65.0</v>
       </c>
-      <c r="C103" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F103" s="1" t="b">
+      <c r="C103" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E103" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2440,16 +2125,13 @@
       <c r="B104" s="3">
         <v>66.0</v>
       </c>
-      <c r="C104" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D104" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F104" s="1" t="b">
+      <c r="C104" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2457,16 +2139,13 @@
       <c r="B105" s="3">
         <v>66.0</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="1">
         <v>2.0</v>
       </c>
-      <c r="D105" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F105" s="1" t="b">
+      <c r="D105" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2474,16 +2153,13 @@
       <c r="B106" s="3">
         <v>66.0</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="1">
         <v>3.0</v>
       </c>
-      <c r="D106" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F106" s="1" t="b">
+      <c r="D106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2491,16 +2167,13 @@
       <c r="B107" s="3">
         <v>66.0</v>
       </c>
-      <c r="C107" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D107" s="4">
+      <c r="C107" s="1">
         <v>4.0</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="1" t="b">
+      <c r="D107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2508,16 +2181,13 @@
       <c r="B108" s="3">
         <v>66.0</v>
       </c>
-      <c r="C108" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D108" s="4">
+      <c r="C108" s="1">
         <v>5.0</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108" s="1" t="b">
+      <c r="D108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2525,16 +2195,13 @@
       <c r="B109" s="3">
         <v>67.0</v>
       </c>
-      <c r="C109" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F109" s="1" t="b">
+      <c r="C109" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E109" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2542,16 +2209,13 @@
       <c r="B110" s="3">
         <v>68.0</v>
       </c>
-      <c r="C110" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F110" s="1" t="b">
+      <c r="C110" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2559,16 +2223,13 @@
       <c r="B111" s="3">
         <v>69.0</v>
       </c>
-      <c r="C111" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F111" s="1" t="b">
+      <c r="C111" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2576,16 +2237,13 @@
       <c r="B112" s="3">
         <v>70.0</v>
       </c>
-      <c r="C112" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F112" s="1" t="b">
+      <c r="C112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2593,16 +2251,13 @@
       <c r="B113" s="3">
         <v>71.0</v>
       </c>
-      <c r="C113" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F113" s="1" t="b">
+      <c r="C113" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2610,16 +2265,13 @@
       <c r="B114" s="3">
         <v>72.0</v>
       </c>
-      <c r="C114" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F114" s="1" t="b">
+      <c r="C114" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E114" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2627,16 +2279,13 @@
       <c r="B115" s="3">
         <v>72.0</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="1">
         <v>2.0</v>
       </c>
-      <c r="D115" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F115" s="1" t="b">
+      <c r="D115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2644,16 +2293,13 @@
       <c r="B116" s="3">
         <v>73.0</v>
       </c>
-      <c r="C116" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F116" s="1" t="b">
+      <c r="C116" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2661,16 +2307,13 @@
       <c r="B117" s="3">
         <v>74.0</v>
       </c>
-      <c r="C117" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D117" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" s="1" t="b">
+      <c r="C117" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2678,16 +2321,13 @@
       <c r="B118" s="3">
         <v>75.0</v>
       </c>
-      <c r="C118" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F118" s="1" t="b">
+      <c r="C118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E118" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2695,16 +2335,13 @@
       <c r="B119" s="3">
         <v>76.0</v>
       </c>
-      <c r="C119" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F119" s="1" t="b">
+      <c r="C119" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E119" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2712,16 +2349,13 @@
       <c r="B120" s="3">
         <v>77.0</v>
       </c>
-      <c r="C120" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D120" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F120" s="1" t="b">
+      <c r="C120" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2729,16 +2363,13 @@
       <c r="B121" s="3">
         <v>77.0</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="1">
         <v>2.0</v>
       </c>
-      <c r="D121" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F121" s="1" t="b">
+      <c r="D121" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2746,16 +2377,13 @@
       <c r="B122" s="3">
         <v>77.0</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="1">
         <v>3.0</v>
       </c>
-      <c r="D122" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F122" s="4" t="b">
+      <c r="D122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2763,16 +2391,13 @@
       <c r="B123" s="3">
         <v>77.0</v>
       </c>
-      <c r="C123" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D123" s="4">
+      <c r="C123" s="1">
         <v>4.0</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F123" s="1" t="b">
+      <c r="D123" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2780,16 +2405,13 @@
       <c r="B124" s="3">
         <v>78.0</v>
       </c>
-      <c r="C124" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D124" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F124" s="1" t="b">
+      <c r="C124" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2797,16 +2419,13 @@
       <c r="B125" s="3">
         <v>79.0</v>
       </c>
-      <c r="C125" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D125" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F125" s="1" t="b">
+      <c r="C125" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2814,16 +2433,13 @@
       <c r="B126" s="3">
         <v>80.0</v>
       </c>
-      <c r="C126" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D126" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F126" s="1" t="b">
+      <c r="C126" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E126" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2831,16 +2447,13 @@
       <c r="B127" s="3">
         <v>81.0</v>
       </c>
-      <c r="C127" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D127" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F127" s="1" t="b">
+      <c r="C127" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2848,16 +2461,13 @@
       <c r="B128" s="3">
         <v>82.0</v>
       </c>
-      <c r="C128" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D128" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F128" s="1" t="b">
+      <c r="C128" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2865,16 +2475,13 @@
       <c r="B129" s="3">
         <v>83.0</v>
       </c>
-      <c r="C129" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D129" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F129" s="1" t="b">
+      <c r="C129" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2882,16 +2489,13 @@
       <c r="B130" s="3">
         <v>84.0</v>
       </c>
-      <c r="C130" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D130" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F130" s="1" t="b">
+      <c r="C130" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2899,16 +2503,13 @@
       <c r="B131" s="3">
         <v>84.0</v>
       </c>
-      <c r="C131" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D131" s="4">
+      <c r="C131" s="1">
         <v>2.0</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F131" s="1" t="b">
+      <c r="D131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2916,16 +2517,13 @@
       <c r="B132" s="3">
         <v>85.0</v>
       </c>
-      <c r="C132" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D132" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F132" s="1" t="b">
+      <c r="C132" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2933,16 +2531,13 @@
       <c r="B133" s="3">
         <v>86.0</v>
       </c>
-      <c r="C133" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D133" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" s="1" t="b">
+      <c r="C133" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E133" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2950,16 +2545,13 @@
       <c r="B134" s="3">
         <v>87.0</v>
       </c>
-      <c r="C134" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D134" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F134" s="1" t="b">
+      <c r="C134" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2967,16 +2559,13 @@
       <c r="B135" s="3">
         <v>88.0</v>
       </c>
-      <c r="C135" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D135" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F135" s="1" t="b">
+      <c r="C135" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2984,16 +2573,13 @@
       <c r="B136" s="3">
         <v>88.0</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="1">
         <v>2.0</v>
       </c>
-      <c r="D136" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F136" s="1" t="b">
+      <c r="D136" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E136" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3001,16 +2587,13 @@
       <c r="B137" s="3">
         <v>88.0</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="1">
         <v>3.0</v>
       </c>
-      <c r="D137" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F137" s="1" t="b">
+      <c r="D137" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E137" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3018,16 +2601,13 @@
       <c r="B138" s="3">
         <v>88.0</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="1">
         <v>4.0</v>
       </c>
-      <c r="D138" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F138" s="1" t="b">
+      <c r="D138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3035,16 +2615,13 @@
       <c r="B139" s="3">
         <v>88.0</v>
       </c>
-      <c r="C139" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D139" s="4">
+      <c r="C139" s="1">
         <v>5.0</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F139" s="1" t="b">
+      <c r="D139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3052,16 +2629,13 @@
       <c r="B140" s="3">
         <v>89.0</v>
       </c>
-      <c r="C140" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D140" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F140" s="1" t="b">
+      <c r="C140" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3069,16 +2643,13 @@
       <c r="B141" s="3">
         <v>90.0</v>
       </c>
-      <c r="C141" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D141" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F141" s="1" t="b">
+      <c r="C141" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3086,16 +2657,13 @@
       <c r="B142" s="3">
         <v>91.0</v>
       </c>
-      <c r="C142" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D142" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F142" s="1" t="b">
+      <c r="C142" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3103,16 +2671,13 @@
       <c r="B143" s="3">
         <v>92.0</v>
       </c>
-      <c r="C143" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D143" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F143" s="1" t="b">
+      <c r="C143" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E143" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3120,16 +2685,13 @@
       <c r="B144" s="3">
         <v>93.0</v>
       </c>
-      <c r="C144" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D144" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F144" s="4" t="b">
+      <c r="C144" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E144" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3137,16 +2699,13 @@
       <c r="B145" s="3">
         <v>94.0</v>
       </c>
-      <c r="C145" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D145" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F145" s="4" t="b">
+      <c r="C145" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3154,16 +2713,13 @@
       <c r="B146" s="3">
         <v>95.0</v>
       </c>
-      <c r="C146" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F146" s="4" t="b">
+      <c r="C146" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E146" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3171,16 +2727,13 @@
       <c r="B147" s="3">
         <v>96.0</v>
       </c>
-      <c r="C147" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D147" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F147" s="1" t="b">
+      <c r="C147" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3188,16 +2741,13 @@
       <c r="B148" s="3">
         <v>97.0</v>
       </c>
-      <c r="C148" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D148" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F148" s="1" t="b">
+      <c r="C148" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E148" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3205,16 +2755,13 @@
       <c r="B149" s="3">
         <v>98.0</v>
       </c>
-      <c r="C149" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D149" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F149" s="1" t="b">
+      <c r="C149" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E149" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3222,16 +2769,13 @@
       <c r="B150" s="3">
         <v>99.0</v>
       </c>
-      <c r="C150" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D150" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F150" s="1" t="b">
+      <c r="C150" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E150" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3239,16 +2783,13 @@
       <c r="B151" s="3">
         <v>100.0</v>
       </c>
-      <c r="C151" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D151" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F151" s="1" t="b">
+      <c r="C151" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E151" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3256,16 +2797,13 @@
       <c r="B152" s="3">
         <v>100.0</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="1">
         <v>2.0</v>
       </c>
-      <c r="D152" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F152" s="1" t="b">
+      <c r="D152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="1" t="b">
         <v>1</v>
       </c>
     </row>
